--- a/data/prepr/metrics/Industrials_sector_base_metrics.xlsx
+++ b/data/prepr/metrics/Industrials_sector_base_metrics.xlsx
@@ -476,8 +476,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0.364</v>
@@ -505,8 +507,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>0.472</v>
@@ -534,8 +538,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>UNP</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0.53</v>
@@ -563,8 +569,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>0.433</v>
@@ -592,8 +600,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ETN</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>0.612</v>
@@ -621,8 +631,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>HON</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0.665</v>
@@ -650,8 +662,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>0.43</v>
@@ -679,8 +693,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0.392</v>
@@ -708,8 +724,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>LMT</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0.245</v>
@@ -737,8 +755,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>0.362</v>
@@ -766,8 +786,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>0.453</v>
@@ -795,8 +817,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>WM</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>0.384</v>
@@ -824,8 +848,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>0.422</v>
@@ -853,8 +879,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>0.536</v>
@@ -882,8 +910,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>ITW</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>0.667</v>
@@ -911,8 +941,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>TDG</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>0.441</v>
@@ -940,8 +972,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0.668</v>
@@ -969,8 +1003,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>CTAS</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>0.591</v>
@@ -998,8 +1034,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>NOC</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>0.238</v>
@@ -1027,8 +1065,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>CSX</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>0.545</v>
@@ -1056,8 +1096,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>EMR</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>0.623</v>
@@ -1085,8 +1127,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>0.454</v>
@@ -1114,8 +1158,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RSG</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>0.371</v>
@@ -1143,8 +1189,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>CARR</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>0.528</v>
@@ -1172,8 +1220,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>PCAR</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>0.5</v>
@@ -1201,8 +1251,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>0.536</v>
@@ -1230,8 +1282,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>CPRT</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>0.403</v>
@@ -1259,8 +1313,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>NSC</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>0.5620000000000001</v>
@@ -1288,8 +1344,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>GWW</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>0.437</v>
@@ -1317,8 +1375,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>URI</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>0.517</v>
@@ -1346,8 +1406,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>JCI</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>0.51</v>
@@ -1375,8 +1437,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>0.551</v>
@@ -1404,8 +1468,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>LHX</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>0.347</v>
@@ -1433,8 +1499,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>0.458</v>
@@ -1462,8 +1530,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>0.453</v>
@@ -1491,8 +1561,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>0.668</v>
@@ -1520,8 +1592,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>0.322</v>
@@ -1549,8 +1623,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>0.425</v>
@@ -1578,8 +1654,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>OTIS</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>0.524</v>
@@ -1607,8 +1685,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>IR</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>0.621</v>
@@ -1636,8 +1716,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>0.25</v>
@@ -1665,8 +1747,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>XYL</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>0.447</v>
@@ -1694,8 +1778,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>0.261</v>
@@ -1723,8 +1809,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>0.329</v>
@@ -1752,8 +1840,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>0.571</v>
@@ -1781,8 +1871,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>0.5580000000000001</v>
@@ -1810,8 +1902,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>EFX</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>0.49</v>
@@ -1839,8 +1933,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>GPN</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>0.332</v>
@@ -1868,8 +1964,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>DOV</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>0.669</v>
@@ -1897,8 +1995,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>VLTO</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>0.74</v>
@@ -1926,8 +2026,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>AXON</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>0.091</v>
@@ -1955,8 +2057,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>HUBB</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>0.468</v>
@@ -1984,8 +2088,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>BLDR</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>0.353</v>
@@ -2013,8 +2119,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>UAL</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>0.211</v>
@@ -2042,8 +2150,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>0.427</v>
@@ -2071,8 +2181,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>JBHT</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>0.493</v>
@@ -2100,8 +2212,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>IEX</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>0.653</v>
@@ -2129,8 +2243,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>0.52</v>
@@ -2158,8 +2274,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>EXPD</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>0.4</v>
@@ -2187,8 +2305,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>LUV</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>0.295</v>
@@ -2216,8 +2336,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>MAS</t>
+        </is>
       </c>
       <c r="B62" t="n">
         <v>0.521</v>
@@ -2245,8 +2367,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>NDSN</t>
+        </is>
       </c>
       <c r="B63" t="n">
         <v>0.472</v>
@@ -2274,8 +2398,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>SNA</t>
+        </is>
       </c>
       <c r="B64" t="n">
         <v>0.545</v>
@@ -2303,8 +2429,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>POOL</t>
+        </is>
       </c>
       <c r="B65" t="n">
         <v>0.369</v>
@@ -2332,8 +2460,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>PNR</t>
+        </is>
       </c>
       <c r="B66" t="n">
         <v>0.503</v>
@@ -2361,8 +2491,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>SWK</t>
+        </is>
       </c>
       <c r="B67" t="n">
         <v>0.524</v>
@@ -2390,8 +2522,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>AOS</t>
+        </is>
       </c>
       <c r="B68" t="n">
         <v>0.528</v>
@@ -2419,8 +2553,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>ALLE</t>
+        </is>
       </c>
       <c r="B69" t="n">
         <v>0.501</v>
@@ -2448,8 +2584,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
       </c>
       <c r="B70" t="n">
         <v>0.284</v>
@@ -2477,8 +2615,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>CHRW</t>
+        </is>
       </c>
       <c r="B71" t="n">
         <v>0.213</v>
@@ -2506,8 +2646,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>AAL</t>
+        </is>
       </c>
       <c r="B72" t="n">
         <v>0.187</v>
@@ -2535,8 +2677,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>GNRC</t>
+        </is>
       </c>
       <c r="B73" t="n">
         <v>0.223</v>
@@ -2564,8 +2708,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RHI</t>
+        </is>
       </c>
       <c r="B74" t="n">
         <v>0.494</v>
